--- a/assets/excel/TemplateReportv3.xlsx
+++ b/assets/excel/TemplateReportv3.xlsx
@@ -79,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0.00\ &quot;Detik&quot;"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="182" formatCode="0\ &quot;Detik&quot;"/>
   </numFmts>
   <fonts count="24">
@@ -118,12 +118,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,30 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,17 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,30 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +220,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +245,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,79 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +419,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,12 +752,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -778,17 +791,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,24 +811,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,151 +838,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,8 +1017,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8130,8 +8130,8 @@
   <sheetPr/>
   <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12:V26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -8240,7 +8240,10 @@
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="str">
+        <f>IF(B11&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B11,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
@@ -8286,7 +8289,10 @@
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13" t="str">
+        <f>IF(B12&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B12,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
@@ -8308,7 +8314,10 @@
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="str">
+        <f>IF(B13&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B13,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -8330,7 +8339,10 @@
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="17"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="str">
+        <f>IF(B14&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B14,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -8352,7 +8364,10 @@
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="17"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="str">
+        <f>IF(B15&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B15,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
@@ -8374,7 +8389,10 @@
     </row>
     <row r="16" spans="2:22">
       <c r="B16" s="18"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="13" t="str">
+        <f>IF(B16&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B16,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
@@ -8396,7 +8414,10 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="18"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13" t="str">
+        <f>IF(B17&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B17,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
@@ -8416,9 +8437,12 @@
       <c r="U17" s="34"/>
       <c r="V17" s="34"/>
     </row>
-    <row r="18" ht="15.3" spans="2:22">
+    <row r="18" spans="2:22">
       <c r="B18" s="19"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="str">
+        <f>IF(B18&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B18,Worksheet!J:J),"")</f>
+        <v/>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>

--- a/assets/excel/TemplateReportv3.xlsx
+++ b/assets/excel/TemplateReportv3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21274" windowHeight="8528" activeTab="1"/>
+    <workbookView windowWidth="17374" windowHeight="8528" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.00\ &quot;Detik&quot;"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="0\ &quot;Detik&quot;"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0\ &quot;Detik&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.00\ &quot;Detik&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -115,10 +115,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,13 +139,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -152,22 +146,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,13 +170,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -217,6 +211,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,7 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,17 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +305,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,43 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,61 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +752,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,15 +811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -818,8 +829,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,33 +849,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,127 +873,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,8 +1019,8 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1127,6 +1127,823 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" altLang="en-US"/>
+              <a:t>Average Downtime per Line</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Report OEE'!$G$11:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Report OEE'!$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="205407099"/>
+        <c:axId val="350963626"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="205407099"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350963626"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350963626"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205407099"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1150,7 +1967,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1171,6 +1988,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="315595" y="3749040"/>
+        <a:ext cx="4572635" cy="2816860"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1465,7 +2312,7 @@
   <sheetPr/>
   <dimension ref="A3:U290"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" topLeftCell="F1" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -8130,8 +8977,8 @@
   <sheetPr/>
   <dimension ref="B2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -8244,11 +9091,26 @@
         <f>IF(B11&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B11,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="13" t="str">
+        <f>IF(B11&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B11,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f>IF(B11&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B11,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>IF(C11&lt;&gt;"",AVERAGE(C11:E11),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f>IF(B11&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B11,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f>IF(B11&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B11),"")</f>
+        <v/>
+      </c>
       <c r="J11" s="29" t="s">
         <v>14</v>
       </c>
@@ -8293,11 +9155,26 @@
         <f>IF(B12&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B12,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="13" t="str">
+        <f>IF(B12&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B12,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="13" t="str">
+        <f>IF(B12&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B12,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f t="shared" ref="F12:F18" si="0">IF(C12&lt;&gt;"",AVERAGE(C12:E12),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f>IF(B12&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B12,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f>IF(B12&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B12),"")</f>
+        <v/>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35"/>
@@ -8318,11 +9195,26 @@
         <f>IF(B13&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B13,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="13" t="str">
+        <f>IF(B13&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B13,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f>IF(B13&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B13,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="15" t="str">
+        <f>IF(B13&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B13,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f>IF(B13&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B13),"")</f>
+        <v/>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="34"/>
       <c r="L13" s="35"/>
@@ -8343,11 +9235,26 @@
         <f>IF(B14&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B14,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="13" t="str">
+        <f>IF(B14&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B14,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f>IF(B14&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B14,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="15" t="str">
+        <f>IF(B14&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B14,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f>IF(B14&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B14),"")</f>
+        <v/>
+      </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35"/>
@@ -8368,11 +9275,26 @@
         <f>IF(B15&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B15,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="13" t="str">
+        <f>IF(B15&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B15,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f>IF(B15&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B15,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f>IF(B15&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B15,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f>IF(B15&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B15),"")</f>
+        <v/>
+      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35"/>
@@ -8393,11 +9315,26 @@
         <f>IF(B16&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B16,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="13" t="str">
+        <f>IF(B16&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B16,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f>IF(B16&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B16,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="15" t="str">
+        <f>IF(B16&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B16,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f>IF(B16&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B16),"")</f>
+        <v/>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35"/>
@@ -8418,11 +9355,26 @@
         <f>IF(B17&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B17,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="13" t="str">
+        <f>IF(B17&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B17,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f>IF(B17&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B17,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="15" t="str">
+        <f>IF(B17&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B17,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f>IF(B17&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B17),"")</f>
+        <v/>
+      </c>
       <c r="J17" s="18"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35"/>
@@ -8437,17 +9389,32 @@
       <c r="U17" s="34"/>
       <c r="V17" s="34"/>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" ht="15.3" spans="2:22">
       <c r="B18" s="19"/>
       <c r="C18" s="13" t="str">
         <f>IF(B18&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B18,Worksheet!J:J),"")</f>
         <v/>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="13" t="str">
+        <f>IF(B18&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B18,Worksheet!I:I),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f>IF(B18&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B18,Worksheet!K:K),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f>IF(B18&lt;&gt;"",AVERAGEIF(Worksheet!B:B,B18,Worksheet!N:N),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f>IF(B18&lt;&gt;"",_xlfn.MAXIFS(Worksheet!N:N,Worksheet!B:B,B18),"")</f>
+        <v/>
+      </c>
       <c r="J18" s="18"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35"/>

--- a/assets/excel/TemplateReportv3.xlsx
+++ b/assets/excel/TemplateReportv3.xlsx
@@ -80,12 +80,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0\ &quot;Detik&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.00\ &quot;Detik&quot;"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00\ &quot;Detik&quot;"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0\ &quot;Detik&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -115,17 +115,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +136,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -154,14 +146,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +177,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,8 +191,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,21 +239,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,14 +254,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,37 +311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,6 +335,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,19 +359,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,25 +413,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,55 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,15 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,6 +774,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,15 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -849,151 +840,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,8 +1019,8 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1188,40 +1188,65 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Report OEE'!$G$11:$G$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Report OEE'!$G$19</c:f>
+              <c:f>'Report OEE'!$G$11:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00\ "Detik"</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1235,10 +1260,63 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="205407099"/>
         <c:axId val="350963626"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Report OEE'!$B$11:$B$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="205407099"/>
@@ -1310,7 +1388,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00\ &quot;Detik&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8978,7 +9056,7 @@
   <dimension ref="B2:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
